--- a/ゲーム仕様書.xlsx
+++ b/ゲーム仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CESA2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FCBCB0-EC62-4E5C-84C1-4B9581553667}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD125A99-5D55-4D1A-BECC-7C1D8BCB2522}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{436838E2-DF24-40DF-84B2-99E0BA83CB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{436838E2-DF24-40DF-84B2-99E0BA83CB88}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ステージ画面仕様" sheetId="4" r:id="rId4"/>
     <sheet name="ポーズ画面＆ゲームクリア・オーバー画面仕様" sheetId="6" r:id="rId5"/>
     <sheet name="プレイヤー仕様" sheetId="5" r:id="rId6"/>
+    <sheet name="ギミック" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="203">
   <si>
     <t>ゲームフローチャート</t>
     <phoneticPr fontId="2"/>
@@ -2116,6 +2117,50 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギミック仕様</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>惑星</t>
+    <rPh sb="0" eb="2">
+      <t>ワクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーに与える効果</t>
+    <rPh sb="6" eb="7">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ノーマル惑星</t>
+    <rPh sb="4" eb="6">
+      <t>ワクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何も影響を与えない。</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2124,7 +2169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2245,8 +2290,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2288,8 +2342,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2539,8 +2598,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2553,8 +2651,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2627,10 +2728,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2645,85 +2818,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="60% - アクセント 3" xfId="2" builtinId="40"/>
     <cellStyle name="アクセント 1" xfId="1" builtinId="29"/>
+    <cellStyle name="チェック セル" xfId="4" builtinId="23"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -17521,8 +17638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BFB0D0-081A-4157-B5E9-9E1A201230B0}">
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17714,7 +17831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35982033-1525-4E83-B7FD-613D37D0A030}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -17868,16 +17985,16 @@
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="24"/>
+      <c r="C84" s="30"/>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="24"/>
+      <c r="C85" s="30"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P89" t="s">
@@ -17948,7 +18065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AE4F1E-84DC-4E26-B1A9-A5FDD62603F4}">
   <dimension ref="A1:R155"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
@@ -18243,10 +18360,10 @@
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C104" s="24"/>
+      <c r="C104" s="30"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P106" t="s">
@@ -18699,130 +18816,130 @@
     </row>
     <row r="13" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="33" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="34"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="54"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B17" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B18" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="49" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B19" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="49" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="51"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B20" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="25" spans="1:11" s="11" customFormat="1" ht="32.25" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
@@ -18831,21 +18948,21 @@
     </row>
     <row r="27" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="38" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="39"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="47"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="20" t="s">
         <v>113</v>
       </c>
@@ -18853,10 +18970,10 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="18" t="s">
         <v>116</v>
       </c>
@@ -18864,10 +18981,10 @@
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="18" t="s">
         <v>117</v>
       </c>
@@ -18886,39 +19003,29 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="42" t="s">
+      <c r="C41" s="32"/>
+      <c r="D41" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="43"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="32"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B42" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="44" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="41"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
@@ -18926,9 +19033,71 @@
     <mergeCell ref="C15:D21"/>
     <mergeCell ref="E14:K14"/>
     <mergeCell ref="E17:K17"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="E21:K21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48C45AD-E4BF-4C87-95A1-FE6BF43DB519}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="32.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ゲーム仕様書.xlsx
+++ b/ゲーム仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CESA2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FCBCB0-EC62-4E5C-84C1-4B9581553667}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A428BD2B-7A10-4118-AE96-597C3A0BC72D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{436838E2-DF24-40DF-84B2-99E0BA83CB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{436838E2-DF24-40DF-84B2-99E0BA83CB88}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ステージ画面仕様" sheetId="4" r:id="rId4"/>
     <sheet name="ポーズ画面＆ゲームクリア・オーバー画面仕様" sheetId="6" r:id="rId5"/>
     <sheet name="プレイヤー仕様" sheetId="5" r:id="rId6"/>
+    <sheet name="ギミック仕様" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="222">
   <si>
     <t>ゲームフローチャート</t>
     <phoneticPr fontId="2"/>
@@ -2116,6 +2117,336 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギミック仕様</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>惑星</t>
+    <rPh sb="0" eb="2">
+      <t>ワクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーに与える効果</t>
+    <rPh sb="6" eb="7">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何も影響を与えない。</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動速度が遅くなる。（速度は二分の一）</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニブン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動速度が徐々に加速（1.5倍）</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カソク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動後徐々に減速していく。（速度十分の一ずつ減速）</t>
+    <rPh sb="0" eb="3">
+      <t>イドウゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンソク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゲンソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>炎の惑星</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ワクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氷の惑星</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ワクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重力の惑星</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ノーマルの惑星</t>
+    <rPh sb="5" eb="7">
+      <t>ワクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの周りの範囲（キャラ一体分）はもやが無い。</t>
+    <rPh sb="6" eb="7">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光の惑星</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ワクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そこの惑星には敵が寄り付かない。セーフゾーン的な。</t>
+    <rPh sb="3" eb="5">
+      <t>ワクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵を生成する惑星</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ワクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵が一体減ったら、五秒後に一体生成する。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イッタイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ゴビョウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>霧の惑星</t>
+    <rPh sb="0" eb="1">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ワクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>星の周りに白い霧がまとわりついている。</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>星の四分の一進んだら消える。</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨンブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>惑星が炎の渦（プロミネンス的な）を3秒ごとに出現して、</t>
+    <rPh sb="0" eb="2">
+      <t>ワクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウズ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーと敵にダメージを与える。（一撃必殺）</t>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチゲキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒッサツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草の惑星</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ワクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草が生えているところを移動すると、</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのエリアに敵が寄ってくる。</t>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2124,7 +2455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2245,8 +2576,33 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2288,8 +2644,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2539,8 +2900,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2553,8 +3010,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2627,10 +3087,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2645,85 +3177,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="60% - アクセント 3" xfId="2" builtinId="40"/>
     <cellStyle name="アクセント 1" xfId="1" builtinId="29"/>
+    <cellStyle name="チェック セル" xfId="4" builtinId="23"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -16048,15 +16566,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16071,7 +16589,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="3105150"/>
+          <a:off x="2771775" y="3362325"/>
           <a:ext cx="4114800" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -17392,7 +17910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8848895-918B-45CE-A6CD-FDC204783165}">
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -17521,8 +18039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BFB0D0-081A-4157-B5E9-9E1A201230B0}">
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17714,7 +18232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35982033-1525-4E83-B7FD-613D37D0A030}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -17868,16 +18386,16 @@
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="24"/>
+      <c r="C84" s="30"/>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="24"/>
+      <c r="C85" s="30"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P89" t="s">
@@ -17948,7 +18466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AE4F1E-84DC-4E26-B1A9-A5FDD62603F4}">
   <dimension ref="A1:R155"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
@@ -18243,10 +18761,10 @@
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C104" s="24"/>
+      <c r="C104" s="30"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P106" t="s">
@@ -18367,7 +18885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF42BB1F-3217-4B51-B272-DCF77E27F56D}">
   <dimension ref="A1:Q217"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -18670,8 +19188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E627FC2-06AF-4EC4-953D-C9E28E4A65C4}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18699,130 +19217,130 @@
     </row>
     <row r="13" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="33" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="34"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="54"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B17" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B18" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="49" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B19" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="49" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="51"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B20" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="25" spans="1:11" s="11" customFormat="1" ht="32.25" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
@@ -18831,21 +19349,21 @@
     </row>
     <row r="27" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="38" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="39"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="47"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="20" t="s">
         <v>113</v>
       </c>
@@ -18853,10 +19371,10 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="18" t="s">
         <v>116</v>
       </c>
@@ -18864,10 +19382,10 @@
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="18" t="s">
         <v>117</v>
       </c>
@@ -18886,39 +19404,29 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="42" t="s">
+      <c r="C41" s="32"/>
+      <c r="D41" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="43"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="32"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B42" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="44" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="41"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
@@ -18926,9 +19434,293 @@
     <mergeCell ref="C15:D21"/>
     <mergeCell ref="E14:K14"/>
     <mergeCell ref="E17:K17"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="E21:K21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48C45AD-E4BF-4C87-95A1-FE6BF43DB519}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="32.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="72"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="63"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="55"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="63"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="68"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="59"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="63"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="37"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="37"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="37"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="37"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="37"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>